--- a/Airmiles.xlsx
+++ b/Airmiles.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
